--- a/Results/Classification/Control vs Atypical/Control 1 (2, 12, 10, 5, 1)/Atypical 2 (4, 1, 13, 10)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 1 (2, 12, 10, 5, 1)/Atypical 2 (4, 1, 13, 10)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.003097290406003594</v>
+        <v>0.08204471844477863</v>
       </c>
       <c r="E2">
-        <v>0.003097290406003594</v>
+        <v>0.08204471844477863</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.842039103189862E-28</v>
+        <v>0.2798291202851274</v>
       </c>
       <c r="E3">
-        <v>7.842039103189862E-28</v>
+        <v>0.2798291202851274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,13 +478,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.01694158468343083</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.01694158468343083</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7.320247095950023E-27</v>
+        <v>0.2332477623383898</v>
       </c>
       <c r="E5">
-        <v>7.320247095950023E-27</v>
+        <v>0.2332477623383898</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.112373052073367E-36</v>
+        <v>0.1996456718942284</v>
       </c>
       <c r="E6">
-        <v>1.112373052073367E-36</v>
+        <v>0.1996456718942284</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,13 +520,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9832153916358948</v>
+        <v>0.01431871118954079</v>
       </c>
       <c r="E7">
-        <v>0.01678460836410522</v>
+        <v>0.9856812888104592</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0007832998432050463</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.999216700156795</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03516121175312053</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.9648387882468795</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05588387330400575</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9441161266959942</v>
       </c>
       <c r="F10">
-        <v>56.34315490722656</v>
+        <v>2.061080694198608</v>
       </c>
       <c r="G10">
         <v>0.5555555555555556</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.04947099547241984</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04947099547241984</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2.699769263135071E-33</v>
+        <v>0.2613839120392689</v>
       </c>
       <c r="E12">
-        <v>2.699769263135071E-33</v>
+        <v>0.2613839120392689</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -613,13 +613,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.02236916021366518</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.02236916021366518</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -630,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.721615832036398E-36</v>
+        <v>0.1918938443997983</v>
       </c>
       <c r="E14">
-        <v>1.721615832036398E-36</v>
+        <v>0.1918938443997983</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1475817249778648</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1475817249778648</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.007898591266148804</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.9921014087338512</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.02619233908752912</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9738076609124708</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.07495124491579559</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.9250487550842044</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.164004544067148</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.8359954559328521</v>
       </c>
       <c r="F19">
-        <v>69.89083862304688</v>
+        <v>1.514579296112061</v>
       </c>
       <c r="G19">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
   </sheetData>
